--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H2">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N2">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q2">
-        <v>0.2659606658905555</v>
+        <v>0.04327231292266667</v>
       </c>
       <c r="R2">
-        <v>2.393645993015</v>
+        <v>0.389450816304</v>
       </c>
       <c r="S2">
-        <v>0.0002118208771514249</v>
+        <v>8.027889952437961E-06</v>
       </c>
       <c r="T2">
-        <v>0.0002118208771514249</v>
+        <v>8.027889952437959E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H3">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N3">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O3">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P3">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q3">
-        <v>107.6240458134917</v>
+        <v>12.63198637686333</v>
       </c>
       <c r="R3">
-        <v>968.6164123214251</v>
+        <v>113.68787739177</v>
       </c>
       <c r="S3">
-        <v>0.08571575691640081</v>
+        <v>0.002343489165817972</v>
       </c>
       <c r="T3">
-        <v>0.08571575691640079</v>
+        <v>0.002343489165817971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H4">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I4">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J4">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N4">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q4">
-        <v>0.1164634744777778</v>
+        <v>0.008535322008666668</v>
       </c>
       <c r="R4">
-        <v>1.0481712703</v>
+        <v>0.076817898078</v>
       </c>
       <c r="S4">
-        <v>9.275580371022641E-05</v>
+        <v>1.583475002056237E-06</v>
       </c>
       <c r="T4">
-        <v>9.275580371022641E-05</v>
+        <v>1.583475002056237E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H5">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I5">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J5">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N5">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O5">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P5">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q5">
-        <v>136.3645858859189</v>
+        <v>6.988832765989222</v>
       </c>
       <c r="R5">
-        <v>1227.28127297327</v>
+        <v>62.899494893903</v>
       </c>
       <c r="S5">
-        <v>0.1086057823551715</v>
+        <v>0.00129656994396445</v>
       </c>
       <c r="T5">
-        <v>0.1086057823551715</v>
+        <v>0.00129656994396445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>14.500353</v>
       </c>
       <c r="I6">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J6">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N6">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q6">
-        <v>0.5836085963936666</v>
+        <v>1.174799266256</v>
       </c>
       <c r="R6">
-        <v>5.252477367542999</v>
+        <v>10.573193396304</v>
       </c>
       <c r="S6">
-        <v>0.0004648073969407529</v>
+        <v>0.0002179490438276955</v>
       </c>
       <c r="T6">
-        <v>0.0004648073969407529</v>
+        <v>0.0002179490438276955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.500353</v>
       </c>
       <c r="I7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N7">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O7">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P7">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q7">
-        <v>236.163938397065</v>
+        <v>342.9455770810301</v>
       </c>
       <c r="R7">
-        <v>2125.475445573585</v>
+        <v>3086.51019372927</v>
       </c>
       <c r="S7">
-        <v>0.1880896651213333</v>
+        <v>0.06362334635086515</v>
       </c>
       <c r="T7">
-        <v>0.1880896651213333</v>
+        <v>0.06362334635086514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.500353</v>
       </c>
       <c r="I8">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J8">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N8">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q8">
-        <v>0.2555606658733334</v>
+        <v>0.231725307842</v>
       </c>
       <c r="R8">
-        <v>2.30004599286</v>
+        <v>2.085527770578</v>
       </c>
       <c r="S8">
-        <v>0.000203537933812242</v>
+        <v>4.298973511942671E-05</v>
       </c>
       <c r="T8">
-        <v>0.000203537933812242</v>
+        <v>4.29897351194267E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.500353</v>
       </c>
       <c r="I9">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J9">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N9">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O9">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P9">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q9">
-        <v>299.2305057599527</v>
+        <v>189.7396984566837</v>
       </c>
       <c r="R9">
-        <v>2693.074551839574</v>
+        <v>1707.657286110153</v>
       </c>
       <c r="S9">
-        <v>0.2383182038904215</v>
+        <v>0.0352005547182374</v>
       </c>
       <c r="T9">
-        <v>0.2383182038904215</v>
+        <v>0.0352005547182374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H10">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I10">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J10">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N10">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q10">
-        <v>0.1245784452721111</v>
+        <v>8.660627294880001</v>
       </c>
       <c r="R10">
-        <v>1.121206007449</v>
+        <v>77.94564565392001</v>
       </c>
       <c r="S10">
-        <v>9.921886555419558E-05</v>
+        <v>0.001606721669041131</v>
       </c>
       <c r="T10">
-        <v>9.921886555419558E-05</v>
+        <v>0.001606721669041131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H11">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I11">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J11">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N11">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O11">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P11">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q11">
-        <v>50.41210231762834</v>
+        <v>2528.1968680419</v>
       </c>
       <c r="R11">
-        <v>453.708920858655</v>
+        <v>22753.7718123771</v>
       </c>
       <c r="S11">
-        <v>0.04015005638601318</v>
+        <v>0.4690316940305565</v>
       </c>
       <c r="T11">
-        <v>0.04015005638601317</v>
+        <v>0.4690316940305565</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H12">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I12">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J12">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N12">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q12">
-        <v>0.05455257277555556</v>
+        <v>1.70828037066</v>
       </c>
       <c r="R12">
-        <v>0.49097315498</v>
+        <v>15.37452333594</v>
       </c>
       <c r="S12">
-        <v>4.344767966906892E-05</v>
+        <v>0.0003169205872604252</v>
       </c>
       <c r="T12">
-        <v>4.344767966906892E-05</v>
+        <v>0.0003169205872604252</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H13">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I13">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J13">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N13">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O13">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P13">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q13">
-        <v>63.87443813527578</v>
+        <v>1398.76220438341</v>
       </c>
       <c r="R13">
-        <v>574.8699432174819</v>
+        <v>12588.85983945069</v>
       </c>
       <c r="S13">
-        <v>0.05087195682889513</v>
+        <v>0.2594987022414875</v>
       </c>
       <c r="T13">
-        <v>0.05087195682889512</v>
+        <v>0.2594987022414875</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H14">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I14">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J14">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N14">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q14">
-        <v>0.05095161369944444</v>
+        <v>0.1342142269013334</v>
       </c>
       <c r="R14">
-        <v>0.458564523295</v>
+        <v>1.207928042112</v>
       </c>
       <c r="S14">
-        <v>4.057974313591961E-05</v>
+        <v>2.489945581464528E-05</v>
       </c>
       <c r="T14">
-        <v>4.057974313591962E-05</v>
+        <v>2.489945581464528E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H15">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I15">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J15">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N15">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O15">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P15">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q15">
-        <v>20.61815715755834</v>
+        <v>39.17960865250667</v>
       </c>
       <c r="R15">
-        <v>185.563414418025</v>
+        <v>352.61647787256</v>
       </c>
       <c r="S15">
-        <v>0.01642106030880947</v>
+        <v>0.007268610467021154</v>
       </c>
       <c r="T15">
-        <v>0.01642106030880947</v>
+        <v>0.007268610467021153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H16">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I16">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J16">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N16">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q16">
-        <v>0.02231157732222222</v>
+        <v>0.02647331670933334</v>
       </c>
       <c r="R16">
-        <v>0.2008041959</v>
+        <v>0.238259850384</v>
       </c>
       <c r="S16">
-        <v>1.776976254439728E-05</v>
+        <v>4.911336114581512E-06</v>
       </c>
       <c r="T16">
-        <v>1.776976254439728E-05</v>
+        <v>4.911336114581511E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H17">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I17">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J17">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N17">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O17">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P17">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q17">
-        <v>26.12414764070111</v>
+        <v>21.67669632788711</v>
       </c>
       <c r="R17">
-        <v>235.11732876631</v>
+        <v>195.090266950984</v>
       </c>
       <c r="S17">
-        <v>0.02080623407058157</v>
+        <v>0.004021465942060622</v>
       </c>
       <c r="T17">
-        <v>0.02080623407058157</v>
+        <v>0.004021465942060622</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H18">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I18">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J18">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N18">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O18">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P18">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q18">
-        <v>0.3414216340077777</v>
+        <v>1.843585512325334</v>
       </c>
       <c r="R18">
-        <v>3.07279470607</v>
+        <v>16.592269610928</v>
       </c>
       <c r="S18">
-        <v>0.0002719207735167894</v>
+        <v>0.0003420224298457647</v>
       </c>
       <c r="T18">
-        <v>0.0002719207735167895</v>
+        <v>0.0003420224298457646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H19">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I19">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J19">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N19">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O19">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P19">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q19">
-        <v>138.1601954451833</v>
+        <v>538.1766192598768</v>
       </c>
       <c r="R19">
-        <v>1243.44175900665</v>
+        <v>4843.589573338891</v>
       </c>
       <c r="S19">
-        <v>0.1100358719911382</v>
+        <v>0.09984265648370956</v>
       </c>
       <c r="T19">
-        <v>0.1100358719911382</v>
+        <v>0.09984265648370955</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H20">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I20">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J20">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N20">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O20">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P20">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q20">
-        <v>0.1495076334888889</v>
+        <v>0.3636412046273334</v>
       </c>
       <c r="R20">
-        <v>1.3455687014</v>
+        <v>3.272770841646</v>
       </c>
       <c r="S20">
-        <v>0.0001190733898954897</v>
+        <v>6.74628041754396E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001190733898954897</v>
+        <v>6.746280417543959E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H21">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I21">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J21">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N21">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O21">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P21">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q21">
-        <v>175.0552833745844</v>
+        <v>297.7541519092968</v>
       </c>
       <c r="R21">
-        <v>1575.49755037126</v>
+        <v>2679.787367183671</v>
       </c>
       <c r="S21">
-        <v>0.139420479905305</v>
+        <v>0.05523942223012619</v>
       </c>
       <c r="T21">
-        <v>0.139420479905305</v>
+        <v>0.05523942223012619</v>
       </c>
     </row>
   </sheetData>
